--- a/medicine/Enfance/People_and_baby/People_and_baby.xlsx
+++ b/medicine/Enfance/People_and_baby/People_and_baby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 People and baby (stylisé people&amp;baby) est une entreprise française gestionnaire de crèches en délégation de service public ou pour des entreprises. Créée en 2004, elle compte en 2022 environ 700 établissements en France et 150 dans le monde entier.
-En 2023, aux côtés de trois autres entreprises du secteur[1], le groupe apparut par ailleurs associé à une polémique portant sur la maltraitance infantile dans les crèches privées françaises[2].
+En 2023, aux côtés de trois autres entreprises du secteur, le groupe apparut par ailleurs associé à une polémique portant sur la maltraitance infantile dans les crèches privées françaises.
 </t>
         </is>
       </c>
@@ -515,16 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-En 2004, la réglementation française évolue, accordant d'importantes aides publiques aux entreprises du marché des crèches privées, afin de faire augmenter la capacité du parc des crèches dans le pays[3]. Ainsi, de nombreuses entreprises de l'accueil de la petite enfance sont créées cette année-là, dont People and baby[4].
-En ces temps-ci, Odile Broglin, infirmière puéricultrice, gère la crèche de l'hôpital Georges-Pompidou, à Paris. Son compagnon, Christophe Durieux, entrepreneur notamment dans le secteur de la communication d'entreprise, lui propose l'idée de lancer une entreprise dans la création de crèches[5]. Le couple s'entoure de plusieurs associés[5], dont Thomas Fabius, qu'Odile Broglin rencontre lors d'un dîner[6].
-People and baby propose d'abord des solutions de crèches clés en mains à destination des grandes entreprises (Total est la première à signer pour sa crèche de la Défense[5]) et des zones industrielles[6]. Puis, rapidement, l'entreprise commence à répondre à des marchés publics, ouverts par des communes. La ville de Paris est l'une des premières à collaborer avec People and baby[5].
-Thomas Fabius quitte la société au bout de 6 mois en raison de différends avec ses partenaires qui lui rachètent ses parts[7],[8]. Dans le procès-verbal de l'assemblée générale de l'entreprise du 16 janvier 2006, ils lui reprochent notamment ses « menaces et propos pesants envers les autres participants au projet », ses « rendez-vous inopinés avec la concurrence » et l'« inacceptable dévoiement de son rôle », se présentant, « notamment auprès des médias, comme le dirigeant de l'entreprise, voire son président, usurpant un titre qu'il ne possède pas »[9].
-Extension
-En 2011 est lancé le réseau Crèches pour tous regroupant les crèches appartenant à People and baby et des établissements partenaires[4].
-En 2015, Odile Broglin et Christophe Durieux redeviennent les deux seuls actionnaires[10] à la suite du départ du groupe CM-CIC Investissement (aujourd'hui Crédit Mutuel Equity) et Bpifrance au capital de la société[5].
-Cette même année, People and baby rejoint la Fédération du service aux particuliers (FESP) et devient membre du Syndicat des entreprises de service à la personne (SESP)[11].
-En 2017, People and baby est élue « Meilleure enseigne » dans la catégorie « Crèches » par l’enquête annuelle menée par le magazine Capital et l’institut d’études Statista auprès d’un panel de 20 000 personnes[12] mais elle ne figure plus dans le palmarès les années suivantes[13],[14].
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, la réglementation française évolue, accordant d'importantes aides publiques aux entreprises du marché des crèches privées, afin de faire augmenter la capacité du parc des crèches dans le pays. Ainsi, de nombreuses entreprises de l'accueil de la petite enfance sont créées cette année-là, dont People and baby.
+En ces temps-ci, Odile Broglin, infirmière puéricultrice, gère la crèche de l'hôpital Georges-Pompidou, à Paris. Son compagnon, Christophe Durieux, entrepreneur notamment dans le secteur de la communication d'entreprise, lui propose l'idée de lancer une entreprise dans la création de crèches. Le couple s'entoure de plusieurs associés, dont Thomas Fabius, qu'Odile Broglin rencontre lors d'un dîner.
+People and baby propose d'abord des solutions de crèches clés en mains à destination des grandes entreprises (Total est la première à signer pour sa crèche de la Défense) et des zones industrielles. Puis, rapidement, l'entreprise commence à répondre à des marchés publics, ouverts par des communes. La ville de Paris est l'une des premières à collaborer avec People and baby.
+Thomas Fabius quitte la société au bout de 6 mois en raison de différends avec ses partenaires qui lui rachètent ses parts,. Dans le procès-verbal de l'assemblée générale de l'entreprise du 16 janvier 2006, ils lui reprochent notamment ses « menaces et propos pesants envers les autres participants au projet », ses « rendez-vous inopinés avec la concurrence » et l'« inacceptable dévoiement de son rôle », se présentant, « notamment auprès des médias, comme le dirigeant de l'entreprise, voire son président, usurpant un titre qu'il ne possède pas ».
 </t>
         </is>
       </c>
@@ -550,19 +562,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Accusations de maltraitance</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022: Affaire de Lyon
-À l'été 2022, les médias relaient les témoignages de parents et de salariés du groupe déplorant la gestion de People and baby[15]. Ces prises de paroles font suite à la mort d'un enfant de 11 mois, tué le 22 juin 2022 par une employée d'une microcrèche People and baby de Lyon, qui lui a fait ingérer un produit ménager, excédée par les pleurs du nourrisson[15]. À la suite de la révélation de l'affaire, des témoignages sont relayés dans les médias : un ancien cadre responsable opérationnel chez People and baby estime que « le groupe est aussi responsable car il ne s'apprête pas à la sécurité physique et mentale de ces collaborateurs »[15], tandis que d'autres collaborateurs dénoncent un manque de personnel, une trop forte pression exercée sur les employés, et font état d'actes de maltraitance envers des enfants qu'ils expliquent par les manquements du groupe[15],[16],[17],[18]. Le groupe People and baby dénonce un « amalgame médiatique indigne » et conteste le « rapprochement [opéré par certains médias] entre ce meurtre et les conditions de travail des professionnels en crèche »[19]. Il réagit et réfute ces témoignages qualifiés d'« invérifiables »[20].
-Suites médiatiques de l'affaire de Lyon
-Il est révélé dans la presse d'autres cas de maltraitance dans les crèches People and baby : une enfant de quatre mois retrouvée en décembre 2021 avec des traces de coups dans une crèche lyonnaise[21]. Un enfant présente en mai 2021 « des bleus à la base du cou, des lésions d'empoignement sur le bras, des hématomes intercostaux et des griffures comme s'il s'était échappé et qu'on l'avait rattrapé » et un autre qui « se tétanise et fait des crises de pleurs » dans une crèche à Villeneuve-d'Ascq[22]. À Bordeaux, une crèche est fermée par la préfecture le 19 juillet 2022 à cause de cris et paroles inappropriés proférés lors de sorties par trois employés de l'établissement, et d'un rapport d'un médecin de la Protection maternelle et infantile, dénonçant notamment un mal-être des enfants[23]. Une décision que le réseau de crèches privées avait tout de suite contestée. Finalement, au lieu du 19 octobre initialement prévu, la structure a été autorisée à rouvrir avec 1 mois d'avance[24], « Le groupe people&amp;baby regrette qu’il ait fallu 2 mois et la mise en difficulté de 20 familles alors que tout était conforme : équipe, diplômes, locaux, normes de sécurité, formations ».
-Une nouvelle plainte pour maltraitance est déposée en décembre 2022 contre une crèche à Metz à la suite d'une blessure sous l'œil d'un enfant de 7 mois. De son côté, le groupe conteste les faits et maintient que le bébé s'est réveillé de la sieste avec l'œil rouge. « Sur la même période, 3 autres enfants de la crèche ont développé des conjonctivites »[25],[26].
-2023: Enquêtes journalistiques
-Le livre enquête Babyzness décrit la manière dont dérive le business des crèches privées, dont l'entreprise People&amp;baby. L'enquête décrit la méthode de croissance tous azimuts du groupe People and baby aux détriment de ses concurrents (Saperlipopette) tout en maitrisant les voix dissonantes[27]. L'affaire de Saperlipopette est en cours juridiquement afin de connaitre le préjudice financier même si People and baby a déjà été condamnée en première instance et en appel[28].
-Libération expliquait que les services juridiques de l'entreprise travaillent sans relâche à la maîtrise des commentaires perçus comme négatifs sur internet, et la e-réputation de People and baby, en utilisant notamment des lettres de menaces à l'égard des personnes qui s'épancheraient trop sur les problèmes de maltraitance[27].
+          <t>Extension</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011 est lancé le réseau Crèches pour tous regroupant les crèches appartenant à People and baby et des établissements partenaires.
+En 2015, Odile Broglin et Christophe Durieux redeviennent les deux seuls actionnaires à la suite du départ du groupe CM-CIC Investissement (aujourd'hui Crédit Mutuel Equity) et Bpifrance au capital de la société.
+Cette même année, People and baby rejoint la Fédération du service aux particuliers (FESP) et devient membre du Syndicat des entreprises de service à la personne (SESP).
+En 2017, People and baby est élue « Meilleure enseigne » dans la catégorie « Crèches » par l’enquête annuelle menée par le magazine Capital et l’institut d’études Statista auprès d’un panel de 20 000 personnes mais elle ne figure plus dans le palmarès les années suivantes,.
 </t>
         </is>
       </c>
@@ -588,13 +602,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Accusations de maltraitance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022: Affaire de Lyon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'été 2022, les médias relaient les témoignages de parents et de salariés du groupe déplorant la gestion de People and baby. Ces prises de paroles font suite à la mort d'un enfant de 11 mois, tué le 22 juin 2022 par une employée d'une microcrèche People and baby de Lyon, qui lui a fait ingérer un produit ménager, excédée par les pleurs du nourrisson. À la suite de la révélation de l'affaire, des témoignages sont relayés dans les médias : un ancien cadre responsable opérationnel chez People and baby estime que « le groupe est aussi responsable car il ne s'apprête pas à la sécurité physique et mentale de ces collaborateurs », tandis que d'autres collaborateurs dénoncent un manque de personnel, une trop forte pression exercée sur les employés, et font état d'actes de maltraitance envers des enfants qu'ils expliquent par les manquements du groupe. Le groupe People and baby dénonce un « amalgame médiatique indigne » et conteste le « rapprochement [opéré par certains médias] entre ce meurtre et les conditions de travail des professionnels en crèche ». Il réagit et réfute ces témoignages qualifiés d'« invérifiables ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>People_and_baby</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/People_and_baby</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Accusations de maltraitance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022: Affaire de Lyon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Suites médiatiques de l'affaire de Lyon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est révélé dans la presse d'autres cas de maltraitance dans les crèches People and baby : une enfant de quatre mois retrouvée en décembre 2021 avec des traces de coups dans une crèche lyonnaise. Un enfant présente en mai 2021 « des bleus à la base du cou, des lésions d'empoignement sur le bras, des hématomes intercostaux et des griffures comme s'il s'était échappé et qu'on l'avait rattrapé » et un autre qui « se tétanise et fait des crises de pleurs » dans une crèche à Villeneuve-d'Ascq. À Bordeaux, une crèche est fermée par la préfecture le 19 juillet 2022 à cause de cris et paroles inappropriés proférés lors de sorties par trois employés de l'établissement, et d'un rapport d'un médecin de la Protection maternelle et infantile, dénonçant notamment un mal-être des enfants. Une décision que le réseau de crèches privées avait tout de suite contestée. Finalement, au lieu du 19 octobre initialement prévu, la structure a été autorisée à rouvrir avec 1 mois d'avance, « Le groupe people&amp;baby regrette qu’il ait fallu 2 mois et la mise en difficulté de 20 familles alors que tout était conforme : équipe, diplômes, locaux, normes de sécurité, formations ».
+Une nouvelle plainte pour maltraitance est déposée en décembre 2022 contre une crèche à Metz à la suite d'une blessure sous l'œil d'un enfant de 7 mois. De son côté, le groupe conteste les faits et maintient que le bébé s'est réveillé de la sieste avec l'œil rouge. « Sur la même période, 3 autres enfants de la crèche ont développé des conjonctivites »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>People_and_baby</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/People_and_baby</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Accusations de maltraitance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023: Enquêtes journalistiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre enquête Babyzness décrit la manière dont dérive le business des crèches privées, dont l'entreprise People&amp;baby. L'enquête décrit la méthode de croissance tous azimuts du groupe People and baby aux détriment de ses concurrents (Saperlipopette) tout en maitrisant les voix dissonantes. L'affaire de Saperlipopette est en cours juridiquement afin de connaitre le préjudice financier même si People and baby a déjà été condamnée en première instance et en appel.
+Libération expliquait que les services juridiques de l'entreprise travaillent sans relâche à la maîtrise des commentaires perçus comme négatifs sur internet, et la e-réputation de People and baby, en utilisant notamment des lettres de menaces à l'égard des personnes qui s'épancheraient trop sur les problèmes de maltraitance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>People_and_baby</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/People_and_baby</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Données économiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, le groupe est largement présent en France, avec plus de 700 établissements ouverts. Il est également implanté dans douze pays étrangers avec environ 150 crèches réparties entre Chine, Cambodge, Philippines, Singapour, États-Unis, Canada, Qatar, Émirats arabes unis, Luxembourg, Italie, Russie, et Belgique[29]. Au total, le groupe emploie environ 10 600 personnes, dont 6 200 en France[29] et garde environ 33 000 enfants par jour[30].
-En 2019, le chiffre d'affaires de People and baby s'élevait à de 84,2 millions d'euros[31].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, le groupe est largement présent en France, avec plus de 700 établissements ouverts. Il est également implanté dans douze pays étrangers avec environ 150 crèches réparties entre Chine, Cambodge, Philippines, Singapour, États-Unis, Canada, Qatar, Émirats arabes unis, Luxembourg, Italie, Russie, et Belgique. Au total, le groupe emploie environ 10 600 personnes, dont 6 200 en France et garde environ 33 000 enfants par jour.
+En 2019, le chiffre d'affaires de People and baby s'élevait à de 84,2 millions d'euros.
 </t>
         </is>
       </c>
